--- a/StocksAuto/Excel/urls.xlsx
+++ b/StocksAuto/Excel/urls.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreddy6\JavaProjects\StocksAutomation\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreddy6\GitHub\StocksAuto\StocksAuto\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5281A59-789A-46A4-BD38-3CA457C4CE21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039DFD53-4CAD-47E5-9C68-38750247249A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="577" xr2:uid="{6E7EF5CE-F38A-435B-8021-54770454DFDF}"/>
   </bookViews>
@@ -72,19 +72,19 @@
     <t>https://www.three.co.uk/New_My3/Upgrade/Phone/Apple/iPhone_11?memory=64&amp;colour=Black&amp;bundle=Beats%20Solo%203</t>
   </si>
   <si>
+    <t>16942</t>
+  </si>
+  <si>
+    <t>16611</t>
+  </si>
+  <si>
+    <t>16932</t>
+  </si>
+  <si>
+    <t>13440</t>
+  </si>
+  <si>
     <t>16489</t>
-  </si>
-  <si>
-    <t>16942</t>
-  </si>
-  <si>
-    <t>16611</t>
-  </si>
-  <si>
-    <t>16932</t>
-  </si>
-  <si>
-    <t>13440</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,7 +545,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
